--- a/data/processed/basaltic_glasses/kraw_summaries_Edi09.xlsx
+++ b/data/processed/basaltic_glasses/kraw_summaries_Edi09.xlsx
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F2">
         <v>0.33</v>
@@ -519,22 +519,22 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="K2">
-        <v>16.84</v>
+        <v>18.94</v>
       </c>
       <c r="L2">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="M2">
-        <v>29.4</v>
+        <v>19.28</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F3">
         <v>0.52</v>
@@ -563,22 +563,22 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="I3">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J3">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="K3">
-        <v>10.38</v>
+        <v>11.05</v>
       </c>
       <c r="L3">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="M3">
-        <v>26.24</v>
+        <v>11.63</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F4">
         <v>0.43</v>
@@ -610,19 +610,19 @@
         <v>0.52</v>
       </c>
       <c r="I4">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J4">
         <v>0.43</v>
       </c>
       <c r="K4">
-        <v>13.16</v>
+        <v>15.38</v>
       </c>
       <c r="L4">
         <v>0.52</v>
       </c>
       <c r="M4">
-        <v>27.45</v>
+        <v>15.8</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F5">
         <v>0.43</v>
@@ -654,19 +654,19 @@
         <v>0.53</v>
       </c>
       <c r="I5">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J5">
         <v>0.44</v>
       </c>
       <c r="K5">
-        <v>15.48</v>
+        <v>16.72</v>
       </c>
       <c r="L5">
         <v>0.53</v>
       </c>
       <c r="M5">
-        <v>28.64</v>
+        <v>17.1</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F6">
         <v>0.4</v>
@@ -695,22 +695,22 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="I6">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J6">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="K6">
-        <v>17.78</v>
+        <v>17.14</v>
       </c>
       <c r="L6">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="M6">
-        <v>29.95</v>
+        <v>17.52</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F7">
         <v>0.54</v>
@@ -742,19 +742,19 @@
         <v>0.65</v>
       </c>
       <c r="I7">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J7">
         <v>0.54</v>
       </c>
       <c r="K7">
-        <v>12.03</v>
+        <v>11.33</v>
       </c>
       <c r="L7">
         <v>0.65</v>
       </c>
       <c r="M7">
-        <v>26.93</v>
+        <v>11.89</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F8">
         <v>0.42</v>
@@ -786,19 +786,19 @@
         <v>0.5</v>
       </c>
       <c r="I8">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J8">
         <v>0.42</v>
       </c>
       <c r="K8">
-        <v>18.31</v>
+        <v>17.04</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>30.26</v>
+        <v>17.41</v>
       </c>
       <c r="N8" t="s">
         <v>19</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F9">
         <v>0.45</v>
@@ -830,19 +830,19 @@
         <v>0.55</v>
       </c>
       <c r="I9">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J9">
         <v>0.45</v>
       </c>
       <c r="K9">
-        <v>15.43</v>
+        <v>15.8</v>
       </c>
       <c r="L9">
         <v>0.55</v>
       </c>
       <c r="M9">
-        <v>28.61</v>
+        <v>16.21</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F10">
         <v>0.54</v>
@@ -871,22 +871,22 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I10">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J10">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>12.37</v>
       </c>
       <c r="L10">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="M10">
-        <v>27.38</v>
+        <v>12.89</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F11">
         <v>0.43</v>
@@ -918,19 +918,19 @@
         <v>0.51</v>
       </c>
       <c r="I11">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J11">
         <v>0.42</v>
       </c>
       <c r="K11">
-        <v>16.24</v>
+        <v>16.59</v>
       </c>
       <c r="L11">
         <v>0.51</v>
       </c>
       <c r="M11">
-        <v>29.06</v>
+        <v>16.98</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F12">
         <v>0.43</v>
@@ -962,19 +962,19 @@
         <v>0.52</v>
       </c>
       <c r="I12">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J12">
         <v>0.43</v>
       </c>
       <c r="K12">
-        <v>17.56</v>
+        <v>19.11</v>
       </c>
       <c r="L12">
         <v>0.52</v>
       </c>
       <c r="M12">
-        <v>29.82</v>
+        <v>19.45</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F13">
         <v>0.22</v>
@@ -1003,22 +1003,22 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I13">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J13">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K13">
-        <v>32.78</v>
+        <v>30.95</v>
       </c>
       <c r="L13">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="M13">
-        <v>40.68</v>
+        <v>31.16</v>
       </c>
       <c r="N13" t="s">
         <v>24</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F14">
         <v>0.48</v>
@@ -1047,22 +1047,22 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="I14">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J14">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="K14">
-        <v>14.13</v>
+        <v>13.61</v>
       </c>
       <c r="L14">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="M14">
-        <v>27.93</v>
+        <v>14.08</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
